--- a/reports/Debug-snowbowl-20251217/For The Day (Actual)_Budget.xlsx
+++ b/reports/Debug-snowbowl-20251217/For The Day (Actual)_Budget.xlsx
@@ -19,6 +19,45 @@
     <t>Department</t>
   </si>
   <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>99150</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
     <t>D1020</t>
   </si>
   <si>
@@ -28,6 +67,51 @@
     <t>D6215</t>
   </si>
   <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>99100</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
     <t>99200</t>
   </si>
   <si>
@@ -37,90 +121,6 @@
     <t>D8050</t>
   </si>
   <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D8060</t>
-  </si>
-  <si>
-    <t>99150</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>99100</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
     <t>D1030</t>
   </si>
   <si>
@@ -142,18 +142,57 @@
     <t>Payroll</t>
   </si>
   <si>
+    <t>Revenue</t>
+  </si>
+  <si>
     <t>Visits</t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
     <t>DepartmentTitle</t>
   </si>
   <si>
+    <t>Lift Operations</t>
+  </si>
+  <si>
+    <t>Terrain Park</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>IT Services</t>
+  </si>
+  <si>
+    <t>Comp Tickets</t>
+  </si>
+  <si>
+    <t>Vehicle Maintenance</t>
+  </si>
+  <si>
+    <t>F&amp;B Admin</t>
+  </si>
+  <si>
+    <t>Facilities Maintenance</t>
+  </si>
+  <si>
+    <t>General Administration</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
     <t>Lift Maintenance</t>
   </si>
   <si>
@@ -163,6 +202,51 @@
     <t>Housekeeping</t>
   </si>
   <si>
+    <t>Mountain G&amp;A</t>
+  </si>
+  <si>
+    <t>Hart Prairie Retail</t>
+  </si>
+  <si>
+    <t>Resort Services G&amp;A</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Daily Winter Ticketed</t>
+  </si>
+  <si>
+    <t>Ski School</t>
+  </si>
+  <si>
+    <t>Rentals</t>
+  </si>
+  <si>
+    <t>Base Camp Hotel</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Rental Repair Shop</t>
+  </si>
+  <si>
+    <t>Agassiz Restaurant</t>
+  </si>
+  <si>
+    <t>Base Camp Restaurant</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
     <t>Winter Season Pass Visits  - Home Resort</t>
   </si>
   <si>
@@ -170,90 +254,6 @@
   </si>
   <si>
     <t>Risk Management</t>
-  </si>
-  <si>
-    <t>Lift Operations</t>
-  </si>
-  <si>
-    <t>Terrain Park</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
-    <t>Parking</t>
-  </si>
-  <si>
-    <t>IT Services</t>
-  </si>
-  <si>
-    <t>Comp Tickets</t>
-  </si>
-  <si>
-    <t>Vehicle Maintenance</t>
-  </si>
-  <si>
-    <t>F&amp;B Admin</t>
-  </si>
-  <si>
-    <t>Facilities Maintenance</t>
-  </si>
-  <si>
-    <t>General Administration</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Daily Winter Ticketed</t>
-  </si>
-  <si>
-    <t>Ski School</t>
-  </si>
-  <si>
-    <t>Rentals</t>
-  </si>
-  <si>
-    <t>Base Camp Hotel</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>Mountain G&amp;A</t>
-  </si>
-  <si>
-    <t>Hart Prairie Retail</t>
-  </si>
-  <si>
-    <t>Resort Services G&amp;A</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Rental Repair Shop</t>
-  </si>
-  <si>
-    <t>Agassiz Restaurant</t>
-  </si>
-  <si>
-    <t>Base Camp Restaurant</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
   </si>
   <si>
     <t>Snowmaking</t>
@@ -665,7 +665,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="2">
-        <v>1302.27</v>
+        <v>5109.22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>46</v>
@@ -679,7 +679,7 @@
         <v>41</v>
       </c>
       <c r="C3" s="2">
-        <v>1255.01</v>
+        <v>756.84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
@@ -693,7 +693,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="2">
-        <v>284.38</v>
+        <v>2936.42</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -704,10 +704,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
-        <v>500.00</v>
+        <v>1456.62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>49</v>
@@ -715,16 +715,16 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
-        <v>1865.85</v>
+        <v>90068.00</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -732,10 +732,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
-        <v>13666.57</v>
+        <v>472.77</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>50</v>
@@ -749,7 +749,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="2">
-        <v>144.38</v>
+        <v>624.21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>51</v>
@@ -760,10 +760,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
-        <v>5109.22</v>
+        <v>125.00</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>52</v>
@@ -777,7 +777,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="2">
-        <v>756.84</v>
+        <v>735.00</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -791,7 +791,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="2">
-        <v>2936.42</v>
+        <v>913.71</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>54</v>
@@ -805,7 +805,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="2">
-        <v>1456.62</v>
+        <v>589.33</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>55</v>
@@ -813,16 +813,16 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
-        <v>90068.00</v>
+        <v>771.74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -830,10 +830,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2">
-        <v>472.77</v>
+        <v>0.00</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>56</v>
@@ -847,7 +847,7 @@
         <v>41</v>
       </c>
       <c r="C15" s="2">
-        <v>624.21</v>
+        <v>846.78</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>57</v>
@@ -858,10 +858,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
-        <v>125.00</v>
+        <v>345.51</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>58</v>
@@ -875,7 +875,7 @@
         <v>41</v>
       </c>
       <c r="C17" s="2">
-        <v>735.00</v>
+        <v>1302.27</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>59</v>
@@ -889,7 +889,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="2">
-        <v>913.71</v>
+        <v>1255.01</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>60</v>
@@ -903,7 +903,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="2">
-        <v>589.33</v>
+        <v>284.38</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>61</v>
@@ -917,7 +917,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>771.74</v>
+        <v>911.72</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>62</v>
@@ -925,16 +925,16 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
-        <v>0.00</v>
+        <v>504.82</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -942,10 +942,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
-        <v>846.78</v>
+        <v>8132.95</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>63</v>
@@ -959,7 +959,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="2">
-        <v>345.51</v>
+        <v>250.06</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>64</v>
@@ -970,10 +970,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2">
-        <v>1250.00</v>
+        <v>593.99</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>65</v>
@@ -987,7 +987,7 @@
         <v>41</v>
       </c>
       <c r="C25" s="2">
-        <v>6122.57</v>
+        <v>581.37</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>66</v>
@@ -995,86 +995,86 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="2">
-        <v>21989.00</v>
+        <v>1250.00</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>31857.00</v>
+        <v>6122.57</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>1954.24</v>
+        <v>21989.00</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2">
-        <v>644.84</v>
+        <v>31857.00</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="2">
-        <v>2811.50</v>
+        <v>1954.24</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="2">
-        <v>311.05</v>
+        <v>644.84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1082,10 +1082,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="2">
-        <v>914.01</v>
+        <v>2811.50</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>70</v>
@@ -1099,7 +1099,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="2">
-        <v>911.72</v>
+        <v>311.05</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>71</v>
@@ -1113,7 +1113,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="2">
-        <v>504.82</v>
+        <v>914.01</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>72</v>
@@ -1121,16 +1121,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2">
-        <v>8132.95</v>
+        <v>325.05</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1138,10 +1138,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2">
-        <v>250.06</v>
+        <v>970.00</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>73</v>
@@ -1155,7 +1155,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="2">
-        <v>593.99</v>
+        <v>789.68</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>74</v>
@@ -1163,58 +1163,58 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2">
-        <v>581.37</v>
+        <v>7155.00</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="2">
-        <v>325.05</v>
+        <v>301.30</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
-        <v>970.00</v>
+        <v>1039.26</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="2">
-        <v>789.68</v>
+        <v>560.07</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1225,7 +1225,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="2">
-        <v>7155.00</v>
+        <v>500.00</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>77</v>
@@ -1239,7 +1239,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="2">
-        <v>301.30</v>
+        <v>1865.85</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>78</v>
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2">
-        <v>1039.26</v>
+        <v>13666.57</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>78</v>
@@ -1267,7 +1267,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="2">
-        <v>560.07</v>
+        <v>144.38</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>79</v>
@@ -1292,7 +1292,7 @@
         <v>36</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2">
         <v>657.57</v>
@@ -1320,7 +1320,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="2">
         <v>186.59</v>
@@ -1362,7 +1362,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2">
         <v>0.00</v>
